--- a/AAA - Revision Asignacion de Salida (version Abril-Julio 2024).xlsx
+++ b/AAA - Revision Asignacion de Salida (version Abril-Julio 2024).xlsx
@@ -544,7 +544,7 @@
         <v>41456</v>
       </c>
       <c r="C2" t="n">
-        <v>10.92328767123288</v>
+        <v>11.3013698630137</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -555,13 +555,13 @@
         <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>6.224379325864565</v>
+        <v>6.221577520305049</v>
       </c>
       <c r="G2" t="n">
-        <v>2.405986549209049</v>
+        <v>4.321250888415055</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>5.806741573033707</v>
+        <v>5.527272727272726</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4554307116104868</v>
+        <v>0.3349862258953167</v>
       </c>
     </row>
     <row r="3">
@@ -607,7 +607,7 @@
         <v>41456</v>
       </c>
       <c r="C3" t="n">
-        <v>10.92328767123288</v>
+        <v>11.3013698630137</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -618,13 +618,13 @@
         <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>6.224379325864565</v>
+        <v>6.221577520305049</v>
       </c>
       <c r="G3" t="n">
-        <v>2.311262669318929</v>
+        <v>3.894811656005675</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>5.404444444444444</v>
+        <v>4.734426229508196</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4503703703703703</v>
+        <v>0.3322404371584699</v>
       </c>
     </row>
     <row r="4">
@@ -670,7 +670,7 @@
         <v>41640</v>
       </c>
       <c r="C4" t="n">
-        <v>10.41917808219178</v>
+        <v>10.7972602739726</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>6.280334269970441</v>
+        <v>6.277886928260588</v>
       </c>
       <c r="G4" t="n">
-        <v>2.311262669318929</v>
+        <v>4.321250888415055</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>5.12</v>
+        <v>5.266141732283463</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4266666666666666</v>
+        <v>0.3191601049868766</v>
       </c>
     </row>
     <row r="5">
@@ -733,7 +733,7 @@
         <v>41640</v>
       </c>
       <c r="C5" t="n">
-        <v>10.41917808219178</v>
+        <v>10.7972602739726</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -744,13 +744,13 @@
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>6.280334269970441</v>
+        <v>6.277886928260588</v>
       </c>
       <c r="G5" t="n">
-        <v>2.40598654920905</v>
+        <v>4.179104477611928</v>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>5.556989247311828</v>
+        <v>5.1072</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.43584229390681</v>
+        <v>0.3242666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -796,24 +796,24 @@
         <v>41852</v>
       </c>
       <c r="C6" t="n">
-        <v>9.838356164383562</v>
+        <v>10.21643835616438</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Knight-Tardes</t>
+          <t>Yoda-Sin Noches</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>6.344804096875039</v>
+        <v>6.342765159165885</v>
       </c>
       <c r="G6" t="n">
-        <v>7.255849199583196</v>
+        <v>3.894811656005675</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>5.28695652173913</v>
+        <v>4.658064516129031</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.982608695652174</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6608695652173912</v>
+        <v>0.3268817204301075</v>
       </c>
     </row>
     <row r="7">
@@ -859,36 +859,36 @@
         <v>41852</v>
       </c>
       <c r="C7" t="n">
-        <v>9.838356164383562</v>
+        <v>10.21643835616438</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Knight-Tardes</t>
+          <t>Yoda-Sin Noches</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>6.344804096875039</v>
+        <v>6.342765159165885</v>
       </c>
       <c r="G7" t="n">
-        <v>8.316756654352544</v>
+        <v>4.434968017057556</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -900,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.12</v>
+        <v>4.548031496062992</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.3191601049868766</v>
       </c>
     </row>
     <row r="8">
@@ -922,36 +922,36 @@
         <v>41852</v>
       </c>
       <c r="C8" t="n">
-        <v>9.838356164383562</v>
+        <v>10.21643835616438</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Knight-Tardes</t>
+          <t>Yoda-Sin Noches</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>6.344804096875039</v>
+        <v>6.342765159165885</v>
       </c>
       <c r="G8" t="n">
-        <v>8.316756654352544</v>
+        <v>4.434968017057556</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -963,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5.28695652173913</v>
+        <v>4.658064516129031</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.31304347826087</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6608695652173912</v>
+        <v>0.3268817204301075</v>
       </c>
     </row>
     <row r="9">
@@ -985,7 +985,7 @@
         <v>42736</v>
       </c>
       <c r="C9" t="n">
-        <v>7.416438356164384</v>
+        <v>7.794520547945205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -996,22 +996,22 @@
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>6.613631110948924</v>
+        <v>6.613295140865327</v>
       </c>
       <c r="G9" t="n">
-        <v>8.316756654352542</v>
+        <v>8.955223880596993</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5.28695652173913</v>
+        <v>5.393548387096773</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2.31304347826087</v>
+        <v>2.941935483870967</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6608695652173912</v>
+        <v>0.4903225806451612</v>
       </c>
     </row>
     <row r="10">
@@ -1048,7 +1048,7 @@
         <v>43040</v>
       </c>
       <c r="C10" t="n">
-        <v>6.583561643835616</v>
+        <v>6.961643835616439</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1059,22 +1059,22 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>6.706078409906459</v>
+        <v>6.706328075748393</v>
       </c>
       <c r="G10" t="n">
-        <v>8.430425310220684</v>
+        <v>8.955223880596993</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -1089,16 +1089,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.829906542056075</v>
+        <v>4.811510791366906</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.988785046728972</v>
+        <v>2.624460431654676</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5682242990654205</v>
+        <v>0.437410071942446</v>
       </c>
     </row>
     <row r="11">
@@ -1111,7 +1111,7 @@
         <v>43113</v>
       </c>
       <c r="C11" t="n">
-        <v>6.383561643835616</v>
+        <v>6.761643835616439</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1122,10 +1122,10 @@
         <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>6.728277925774551</v>
+        <v>6.728668221295972</v>
       </c>
       <c r="G11" t="n">
-        <v>8.477787250165743</v>
+        <v>8.514570007107297</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>3.333333333333333</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.013333333333333</v>
+        <v>0.7475409836065573</v>
       </c>
       <c r="R11" t="n">
-        <v>2.702222222222222</v>
+        <v>3.239344262295082</v>
       </c>
       <c r="S11" t="n">
-        <v>1.125925925925926</v>
+        <v>1.162841530054645</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1174,7 @@
         <v>43770</v>
       </c>
       <c r="C12" t="n">
-        <v>4.583561643835616</v>
+        <v>4.961643835616439</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1185,10 +1185,10 @@
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>6.928073568587381</v>
+        <v>6.929729531224177</v>
       </c>
       <c r="G12" t="n">
-        <v>8.477787250165743</v>
+        <v>8.514570007107297</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>3.333333333333333</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>2</v>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9806451612903224</v>
+        <v>0.7295999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>2.61505376344086</v>
+        <v>3.1616</v>
       </c>
       <c r="S12" t="n">
-        <v>1.089605734767025</v>
+        <v>1.134933333333333</v>
       </c>
     </row>
     <row r="13">
@@ -1237,7 +1237,7 @@
         <v>44440</v>
       </c>
       <c r="C13" t="n">
-        <v>2.747945205479452</v>
+        <v>3.126027397260274</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1248,10 +1248,10 @@
         <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>7.131822549842476</v>
+        <v>7.134769223236198</v>
       </c>
       <c r="G13" t="n">
-        <v>8.477787250165743</v>
+        <v>8.727789623311988</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>3.333333333333333</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9913043478260869</v>
+        <v>0.9806451612903224</v>
       </c>
       <c r="R13" t="n">
-        <v>2.643478260869565</v>
+        <v>3.187096774193548</v>
       </c>
       <c r="S13" t="n">
-        <v>1.101449275362319</v>
+        <v>1.144086021505376</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1300,7 @@
         <v>44713</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>2.378082191780822</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1311,10 +1311,10 @@
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>7.214842657129998</v>
+        <v>7.218315246996319</v>
       </c>
       <c r="G14" t="n">
-        <v>8.477787250165743</v>
+        <v>8.727789623311988</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1323,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>3.333333333333333</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
         <v>2</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9806451612903224</v>
+        <v>0.9727999999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>2.61505376344086</v>
+        <v>3.1616</v>
       </c>
       <c r="S14" t="n">
-        <v>1.089605734767025</v>
+        <v>1.134933333333333</v>
       </c>
     </row>
     <row r="15">
@@ -1363,7 +1363,7 @@
         <v>44713</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>2.378082191780822</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1374,10 +1374,10 @@
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>7.214842657129998</v>
+        <v>7.218315246996319</v>
       </c>
       <c r="G15" t="n">
-        <v>8.079946954627239</v>
+        <v>9.026297085998554</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1386,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>2.666666666666667</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8523364485981308</v>
+        <v>0.874820143884892</v>
       </c>
       <c r="R15" t="n">
-        <v>2.272897196261682</v>
+        <v>2.843165467625899</v>
       </c>
       <c r="S15" t="n">
-        <v>0.757632398753894</v>
+        <v>1.093525179856115</v>
       </c>
     </row>
     <row r="16">
@@ -1426,7 +1426,7 @@
         <v>45383</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1643835616438356</v>
+        <v>0.5424657534246575</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,10 +1437,10 @@
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>7.418591638385093</v>
+        <v>7.42335493900834</v>
       </c>
       <c r="G16" t="n">
-        <v>7.93786113479206</v>
+        <v>9.097370291400118</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1449,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.999999999999999</v>
+      </c>
+      <c r="M16" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="n">
-        <v>8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5735849056603773</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="R16" t="n">
-        <v>2.294339622641509</v>
+        <v>3.084057971014492</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7647798742138364</v>
+        <v>1.101449275362319</v>
       </c>
     </row>
   </sheetData>
